--- a/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_short.xlsx
+++ b/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_short.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,65 +456,100 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>param_colsample_bytree</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>param_eta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>param_eval_metric</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param_gamma</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>param_max_depth</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>param_min_child_weight</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>param_n_estimators</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>param_objective</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>param_scale_pos_weight</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>param_subsample</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>param_tree_method</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>split0_test_score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>split1_test_score</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>mean_test_score</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>std_test_score</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>rank_test_score</t>
         </is>
@@ -522,63 +557,2216 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>167.3687889575958</v>
+        <v>1368.45069475174</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3133208751678467</v>
+        <v>18.75061914488403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1199315786361694</v>
+        <v>0.2809174537658691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0189889669418335</v>
+        <v>0.02211845002362471</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8060810167858744</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8307933633453637</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8154044767250951</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.8100031203329926</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8109922070174129</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.8146548368413477</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.008597414864027993</v>
+      </c>
+      <c r="X2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1315.820775556564</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.50810467277013</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2916004657745361</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0708859767080898</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>200</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8126723492670466</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8330761480876895</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8243309539818304</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.805284352609403</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8083958544708092</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8167519316833557</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.01041051400370945</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1290.641909885406</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.98126181776249</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3871184349060058</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1407626047446361</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8166728633105381</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8261208649664644</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.821968867762263</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.8144284982563421</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.817614574113796</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8193611336818808</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.004173784954435285</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1366.217394971848</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.17267340703128</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3133105754852295</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09683952233809844</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>200</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.804285788561355</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8312534518903361</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7998930855471987</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.7960214773108618</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8026909437731695</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.8068289494165842</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.01253040095018054</v>
+      </c>
+      <c r="X5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1316.694396162033</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.20675501574534</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2530588150024414</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04132602775009973</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.7974541113178839</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8393594468735071</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8168713742904946</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.828027458930334</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.81922772739672</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.820188023761788</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01384018291585543</v>
+      </c>
+      <c r="X6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1296.704910707474</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.69942203773219</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.262511682510376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02051346151242718</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>200</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8138819210707799</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8422582990065424</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8218076165308899</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8034641583637681</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8238091219696955</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8210442233883353</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01279548122069964</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1383.649758958817</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12.65877806603204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2826200485229492</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03298025929750513</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8016096232080826</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8410918911601196</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.822984261879818</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8151006454575607</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.8045533312007787</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.8170679505812718</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01422391179094135</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1310.244258403778</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.23593263838806</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2847744941711426</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06887025776077033</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>200</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8019304098908246</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8403973438470268</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.7999497677982268</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8127147682024332</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8077580505572445</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8125500680591511</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.01462878007873067</v>
+      </c>
+      <c r="X9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1299.131925916672</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.064377340163901</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2575399875640869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03122316977867312</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.1, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8170525099350676</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8352794719086022</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8148786999827998</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.816758935632829</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8082221755589615</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.8184383586036521</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.009004506659411661</v>
+      </c>
+      <c r="X10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1380.604849338531</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.278676036514847</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3249959468841553</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08528099784243839</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>200</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8242363658302343</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8590147434344187</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8199458977686739</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.8383363326471217</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8268597871501155</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8336786253661128</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.01405598621876812</v>
+      </c>
+      <c r="X11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1305.342071151733</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.18267013449418</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2766180515289307</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03351850869604598</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>200</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8249632861113101</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8381655710542502</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8357162681969572</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.8367271043113582</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8288997784367328</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.8328944016221216</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.005085221247724495</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1275.974064016342</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.09415137379358</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3349433422088623</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.08004726915946109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>200</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8283183027931985</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.866313376216071</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8250160273951184</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8469810287679002</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8206387459008834</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.8374534962146342</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0169973219528732</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1386.364204740524</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.13669409473957</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.337040376663208</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.06984060754409688</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>200</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8198787681398984</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8585428829010888</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8359361562397385</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.8498393715374607</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8338697427785878</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.8396133843193547</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.01340793221484612</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1301.07328915596</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.319597334185448</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2542123317718506</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04754682414123333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>200</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.825845204239093</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8485621987719854</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8350184901411976</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8195387794591816</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8422593173339403</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8342447979890796</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.01055120127018968</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1270.382536172867</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.28529566690308</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3155704975128174</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03824143556633405</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>200</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.824704302367445</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8535182058704944</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8324286976373275</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8309476196176708</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8278949919636706</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.8338987634913216</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.01016244312124265</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1385.410378313064</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.40973470296575</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3580661296844482</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0802269108230189</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>200</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8136974932531791</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8552830231250901</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8112568995981424</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8267126016316005</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8206534644527348</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.8255206964121493</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01583761793235514</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1307.139075756073</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.71342351155382</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2824478626251221</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03517489498908781</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>200</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.82444433762455</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8609590835114664</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8321394227010461</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.815212506451632</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8438626582489632</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.8353236017075316</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.01589369025281481</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1278.19918141365</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10.01671957369845</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.357309103012085</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1046022962913956</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>200</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.2, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8248249652481094</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8491870951539628</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8388846105733898</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.826452573882224</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8228357350739166</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.8324369959863207</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.01008045720170236</v>
+      </c>
+      <c r="X19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1368.369905471802</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.0739878783538</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3241940021514892</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03095657165057599</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.3</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>auc</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="H20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
         <v>200</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>binary:logitraw</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="M20" t="n">
         <v>16.69255663430421</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>exact</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{'eta': 0.3, 'eval_metric': 'auc', 'max_depth': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'tree_method': 'exact'}</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7763291634824967</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7771297547655888</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7767294591240428</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0004002956415460335</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8269713911252941</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.857466236465892</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8545904805091238</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.8406128020001531</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8302421103655893</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.8419766040932105</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.0123592338329032</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1264.934410715103</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.867148351502344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2803769588470459</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03202795066734686</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>200</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.8394644137696947</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8428204114506131</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8259620346191734</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8469986910301219</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8301076809253456</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.8370706463589898</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.00786435165075303</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1242.25664229393</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13.30849588290149</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2738227367401123</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01886539374246894</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>200</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 0.5, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8343995157788791</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.844692157599456</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8491362797679546</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8360480884526093</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8281020329263817</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.8384756149050562</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.00751550198220137</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1385.257836103439</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10.0941249193685</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3281142234802246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04619000599261961</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>200</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.8349871341977243</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.847946621880791</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8417988601003862</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8460743659738481</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8344741846412892</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.8410562333588076</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.005538374009583832</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1277.839549255371</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.589485077313123</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.276415491104126</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05282767244443523</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>200</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.8492498790918696</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8513462740185349</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8384663346520101</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.8450165927141207</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.8488807031935334</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.8465919567340137</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.004547833560564157</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1244.001744508743</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.39335381507209</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.386950159072876</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05403598870406252</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>200</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.8306677954695502</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.8541833232126933</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.8309989367191531</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.8420905446060432</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8347096814709132</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.8385300562956706</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.008841153921963465</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1314.816296434402</v>
+      </c>
+      <c r="B26" t="n">
+        <v>34.05551336132368</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2736429214477539</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.04413844550893956</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>200</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8070002128767895</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.8442556130311987</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.8372349616124342</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.8217279187378939</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.8299379269606582</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.8280313266437949</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.01291208881392642</v>
+      </c>
+      <c r="X26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1014.936916732788</v>
+      </c>
+      <c r="B27" t="n">
+        <v>215.6905439392517</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1153138637542725</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.07239255506361639</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>200</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.8453817999173998</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.840402248842176</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8211401341610245</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.850855932852004</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8342082694711723</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.8383976770487553</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01023111274839114</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>727.8762868404389</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8.843219018398852</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08665332794189454</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.05082209048282316</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>auc</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>200</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>binary:logitraw</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>16.69255663430421</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 1.0, 'eta': 0.3, 'eval_metric': 'auc', 'gamma': 2, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'subsample': 1.0, 'tree_method': 'exact'}</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8269468661495495</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8542245251719447</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8410013994652324</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8352473992318878</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8358469349106388</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8386534249858506</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.008994365602174594</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_short.xlsx
+++ b/src/strategies/B3.WDOL/00.data/hyperparameters/WDO.5Min.100.50.hyperparameters_short.xlsx
@@ -567,16 +567,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>655.7633521556854</v>
+        <v>916.6201341152191</v>
       </c>
       <c r="B2" t="n">
-        <v>270.9386610823077</v>
+        <v>2.411898471646059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1283652782440186</v>
+        <v>0.1215386390686035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06120787675239265</v>
+        <v>0.08117631828958656</v>
       </c>
       <c r="E2" t="n">
         <v>0.3</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>16.69255663430421</v>
+        <v>17.83609958506224</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -610,44 +610,44 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 16.692556634304207, 'tree_method': 'exact'}</t>
+          <t>{'eta': 0.3, 'eval_metric': 'auc', 'gamma': 1, 'max_depth': 5, 'n_estimators': 200, 'objective': 'binary:logitraw', 'scale_pos_weight': 17.83609958506224, 'tree_method': 'exact'}</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.849617129892229</v>
+        <v>0.8604489664082687</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8661648389739711</v>
+        <v>0.8401625864074554</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8785318906071645</v>
+        <v>0.8693907020898235</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8676958078588963</v>
+        <v>0.8952574507627923</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8332369083545728</v>
+        <v>0.8540225428193232</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8775233374509405</v>
+        <v>0.8527603588667084</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8740012196456773</v>
+        <v>0.8623390514901524</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8515980485669165</v>
+        <v>0.8462717030718194</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8618083223973296</v>
+        <v>0.8664830252897333</v>
       </c>
       <c r="W2" t="n">
-        <v>0.848602359024075</v>
+        <v>0.8617412002929646</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8608779862771773</v>
+        <v>0.8608877587499041</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01401388839436763</v>
+        <v>0.01429775368651572</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
